--- a/biology/Botanique/Liste_d'espèces_de_plantes_dont_le_génome_est_séquencé/Liste_d'espèces_de_plantes_dont_le_génome_est_séquencé.xlsx
+++ b/biology/Botanique/Liste_d'espèces_de_plantes_dont_le_génome_est_séquencé/Liste_d'espèces_de_plantes_dont_le_génome_est_séquencé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+          <t>Liste_d'espèces_de_plantes_dont_le_génome_est_séquencé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des génomes de plantes séquencés présentée ci-après répertorie différentes espèces de plantes dont le séquençage du génome complet est disponible publiquement[1] ; Les ébauches de génomes ne sont pas inclus dans la liste, ni le séquençage d'organites exclusivement. L'année de publication du résultat du séquençage est précisée entre parenthèses.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des génomes de plantes séquencés présentée ci-après répertorie différentes espèces de plantes dont le séquençage du génome complet est disponible publiquement ; Les ébauches de génomes ne sont pas inclus dans la liste, ni le séquençage d'organites exclusivement. L'année de publication du résultat du séquençage est précisée entre parenthèses.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+          <t>Liste_d'espèces_de_plantes_dont_le_génome_est_séquencé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Bryophytes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Physcomitrella patens ssp. patens str. Gransden 2004, première divergence des plantes terrestres (2008[2])</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Physcomitrella patens ssp. patens str. Gransden 2004, première divergence des plantes terrestres (2008)</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+          <t>Liste_d'espèces_de_plantes_dont_le_génome_est_séquencé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,90 +557,241 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lycophytes
-Selaginella moellendorffii, organisme modèle (2011[3],[4])
-Angiospermes basales
-Amborellales
-Amborellaceae
-Amborella trichopoda (2013[5])
-Dicotylédones
-Rosidées
-Amaranthaceae
+          <t>Lycophytes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selaginella moellendorffii, organisme modèle (2011,)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_dont_le_génome_est_séquencé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Plantes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Angiospermes basales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Amborellales</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Amborellaceae
+Amborella trichopoda (2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_dont_le_génome_est_séquencé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Plantes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Rosidées</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Amaranthaceae
 Beta vulgaris, betterave à sucre (2014)
 Anacardiaceae
 Anacardium occidentale, anacardier noix de cajou (2012)
 Brassicaceae
-Arabidopsis lyrata, plante modèle (2011[6])
-Arabidopsis thaliana Ecotype:Columbia, plante modèle (2000[7])
+Arabidopsis lyrata, plante modèle (2011)
+Arabidopsis thaliana Ecotype:Columbia, plante modèle (2000)
 Brassica napus, oléagineux (2009)
-Brassica rapa, plante cultivée, organisme modèle (2011[8])
+Brassica rapa, plante cultivée, organisme modèle (2011)
 Raphanus sativus, radis (2014)
-Thellungiella parvula, espèce apparentée à Arabidopsis, tolérance élevée au sel (2011[9])
+Thellungiella parvula, espèce apparentée à Arabidopsis, tolérance élevée au sel (2011)
 Cannabaceae
-Cannabis sativa, chanvre et marijuana (2011[10])
+Cannabis sativa, chanvre et marijuana (2011)
 Caryophyllaceae
-Dianthus caryophyllus, œillet (2013)[11]
+Dianthus caryophyllus, œillet (2013)
 Cucurbitaceae
 Citrullus lanatus, pastèque (2012)
 Cucumis melo, melon (2012)
-Cucumis sativus 'Chinese long' lignée consanguine 9930, légume cultivé (2009[12])
+Cucumis sativus 'Chinese long' lignée consanguine 9930, légume cultivé (2009)
 Euphorbiaceae
-Jatropha curcas Palawan, plante à biocarburant (2010[13])
+Jatropha curcas Palawan, plante à biocarburant (2010)
 Manihot esculenta, manioc (2014)
-Ricinus communis, oléagineux (2010[14])
+Ricinus communis, oléagineux (2010)
 Fabaceae
-Cajanus cajan, var. Asha, légumineuse modèle (2012[15],[16])
-Glycine max var. Williams 82, protéagineux / oléagineux (2010[17])
-Lotus japonicus, légumineuse modèle (2008[18])
-Medicago truncatula, légumineuse modèle (2011[19])
+Cajanus cajan, var. Asha, légumineuse modèle (2012,)
+Glycine max var. Williams 82, protéagineux / oléagineux (2010)
+Lotus japonicus, légumineuse modèle (2008)
+Medicago truncatula, légumineuse modèle (2011)
 Phaseolus vulgaris, haricot (2014)
 Malvaceae
-Corchorus olitorius, plante à fibres (2010[20],[21],[22])
+Corchorus olitorius, plante à fibres (2010)
 Gossypium hirsutum, cotonnier (2014)
-Theobroma cacao, cacoyer (2010[23],[24])
+Theobroma cacao, cacoyer (2010,)
 Myrtaceae
-Eucalyptus grandis, plante à fibres et bois (2011[25])#
+Eucalyptus grandis, plante à fibres et bois (2011)#
 Rosaceae
-Fragaria vesca, plante à fruits (2011[26])
-Malus domestica "Golden Delicious", arbre fruitier (2010[27],[28],[29])
-Rosa chinensis, rose de Chine (2018)[30]
+Fragaria vesca, plante à fruits (2011)
+Malus domestica "Golden Delicious", arbre fruitier (2010)
+Rosa chinensis, rose de Chine (2018)
 Rutaceae
 Citrus aurantium, bigaradier orange amère (2014)
 Citrus clementina, clémentinier (2014)
 Citrus maxima, pamplemoussier (2014)
 Citrus reticulata, mandarinier (2014)
 Salicaceae
-Populus trichocarpa, séquestration du carbone, arbre modèle, bois (2006[31])
+Populus trichocarpa, séquestration du carbone, arbre modèle, bois (2006)
 Vitaceae
-Vitis vinifera génotype PN40024, plante à fruits (2007[32])
-Astéridées
-Asteraceae
-Helianthus annuus, tournesol (2017)[33]
-Lactuca sativa, laitue (2017)[34]
+Vitis vinifera génotype PN40024, plante à fruits (2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_dont_le_génome_est_séquencé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Plantes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Astéridées</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Asteraceae
+Helianthus annuus, tournesol (2017)
+Lactuca sativa, laitue (2017)
 Ericaceae
 Vaccinium myrtillus, myrtille (2014)
 Rubiaceae
 Coffea, caféier (2014)
 Solanaceae
 Capsicum, piment (2014)
-Solanum lycopersicum, cultivar de tomate ‘Heinz 1706' (2011[35] 2012[36])
-Solanum pimpinellifolium, espèce apparentée à la tomate (ébauche 2012[36])
-Solanum tuberosum, pomme de terre (2011[37])
-Monocotylédones
-Arecaceae
-Elaeis guineensis, palmier à huile (2007[38])
-Phoenix dactylifera, palmier dattier (2011[39])
+Solanum lycopersicum, cultivar de tomate ‘Heinz 1706' (2011 2012)
+Solanum pimpinellifolium, espèce apparentée à la tomate (ébauche 2012)
+Solanum tuberosum, pomme de terre (2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_dont_le_génome_est_séquencé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_dont_le_g%C3%A9nome_est_s%C3%A9quenc%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Plantes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Arecaceae
+Elaeis guineensis, palmier à huile (2007)
+Phoenix dactylifera, palmier dattier (2011)
 Musaceae
-Musa acuminata, banane (2012[40])
+Musa acuminata, banane (2012)
 Poaceae
-Brachypodium distachyon, monocotylédone modèle (2010[41])
-Hordeum vulgare, orge (2012[42])
-Oryza sativa ssp indica, céréale, organisme modèle (2002[43])
-Oryza sativa ssp japonica, céréale, organisme modèle (2002[44])
-Oryza glaberrima var CG14, espèce de riz d'Afrique occidentale (2010[45])
-Sorghum bicolor génotype BTx623, plante cultivée (2009[46])
-Triticum aestivum cv. 'Chinese Spring', céréale (2010[47])
-Zea mays ssp mays B73, céréale (2009[48])</t>
+Brachypodium distachyon, monocotylédone modèle (2010)
+Hordeum vulgare, orge (2012)
+Oryza sativa ssp indica, céréale, organisme modèle (2002)
+Oryza sativa ssp japonica, céréale, organisme modèle (2002)
+Oryza glaberrima var CG14, espèce de riz d'Afrique occidentale (2010)
+Sorghum bicolor génotype BTx623, plante cultivée (2009)
+Triticum aestivum cv. 'Chinese Spring', céréale (2010)
+Zea mays ssp mays B73, céréale (2009)</t>
         </is>
       </c>
     </row>
